--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_21-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_21-56.xlsx
@@ -56,165 +56,168 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>BEEGU NOSE BRAND SOOTHING &amp; MOISTURIZING SPRAY 30ML</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>CAPIXY HAIR TONIC SPRAY 250 ML</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>CO- AVAZIR OPHTH SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>CORTOPECT PLUS 20TABS</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>18:1</t>
+  </si>
+  <si>
+    <t>CRESTOLIP 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>DANTRELAX 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>DISPERCAM 20 MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>EMBROSITOL 40.1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EUTHYROX 50MCG 50 TAB</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
+  </si>
+  <si>
+    <t>FERRODEP 30 CAPS.</t>
+  </si>
+  <si>
+    <t>FLACORT 30MG 20 TAB</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>BEEGU NOSE BRAND SOOTHING &amp; MOISTURIZING SPRAY 30ML</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>CANDALKAN 8MG 14 TAB</t>
-  </si>
-  <si>
-    <t>CAPIXY HAIR TONIC SPRAY 250 ML</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>CO- AVAZIR OPHTH SUSP. 10 ML</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>CORTOPECT PLUS 20TABS</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>18:1</t>
-  </si>
-  <si>
-    <t>CRESTOLIP 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>DANTRELAX 25MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>DISPERCAM 20 MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>EMBROSITOL 40.1MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EUTHYROX 50MCG 50 TAB</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>FELDENE 20MG/ML I.M. 6 AMP.</t>
-  </si>
-  <si>
-    <t>FERRODEP 30 CAPS.</t>
-  </si>
-  <si>
-    <t>FLACORT 30MG 20 TAB</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>FLEBOTON 3 AMP.</t>
-  </si>
-  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -255,9 +258,6 @@
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
   </si>
   <si>
     <t>KETOPREK 1MG/ML SYRUP 125 ML</t>
@@ -1222,11 +1222,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1234,7 +1234,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1268,7 +1268,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1294,7 +1294,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1364,7 +1364,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1372,7 +1372,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1390,7 +1390,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1398,7 +1398,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1416,7 +1416,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1442,7 +1442,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1468,7 +1468,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1520,7 +1520,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1572,7 +1572,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1580,7 +1580,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1606,7 +1606,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1918,7 +1918,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -2178,7 +2178,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2204,7 +2204,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2230,7 +2230,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2248,7 +2248,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2274,7 +2274,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2300,7 +2300,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2308,7 +2308,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -2326,7 +2326,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2334,7 +2334,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2352,7 +2352,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2378,7 +2378,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2386,7 +2386,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2404,7 +2404,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2430,7 +2430,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2456,7 +2456,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2482,7 +2482,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2508,7 +2508,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2516,7 +2516,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -2534,7 +2534,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2542,7 +2542,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2776,7 +2776,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -2828,7 +2828,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -2906,7 +2906,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -2984,7 +2984,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -3010,7 +3010,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -3036,7 +3036,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -3114,7 +3114,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -3270,7 +3270,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -3530,7 +3530,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -3634,7 +3634,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -3660,7 +3660,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -3816,17 +3816,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3842,7 +3842,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -4076,7 +4076,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
@@ -4154,7 +4154,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
@@ -4232,7 +4232,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4258,7 +4258,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4440,7 +4440,7 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -4492,7 +4492,7 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
@@ -4518,7 +4518,7 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
@@ -4544,7 +4544,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="141" ht="25.5" customHeight="1">
       <c r="K141" s="10">
-        <v>6741.75</v>
+        <v>6788.75</v>
       </c>
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
